--- a/ExcelReaderForTableReaderLib/Концептуальная схема.xlsx
+++ b/ExcelReaderForTableReaderLib/Концептуальная схема.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="названия переменных" sheetId="1" r:id="rId1"/>
     <sheet name="Перенос фокуса" sheetId="2" r:id="rId2"/>
+    <sheet name="Думки" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="21">
   <si>
     <t>Column1</t>
   </si>
@@ -65,6 +66,24 @@
   </si>
   <si>
     <t>При переносе фокуса он не должен выходить за LastTakenRowIndex. Если TakeRows =null,   LastTakenRowIndex = int.max</t>
+  </si>
+  <si>
+    <t>MsExcelSourceReader</t>
+  </si>
+  <si>
+    <t>Предоставляет паблик интерфейс</t>
+  </si>
+  <si>
+    <t>MsExcelWorker</t>
+  </si>
+  <si>
+    <t>скрывает ньюансы работы с Excel</t>
+  </si>
+  <si>
+    <t>CellsRangeTranslator</t>
+  </si>
+  <si>
+    <t>в Excel Rnge идёт от 1, класс преобразует range в массив от 0</t>
   </si>
 </sst>
 </file>
@@ -3330,7 +3349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:AC31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="AC27" sqref="AC27"/>
     </sheetView>
   </sheetViews>
@@ -4548,4 +4567,46 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ExcelReaderForTableReaderLib/Концептуальная схема.xlsx
+++ b/ExcelReaderForTableReaderLib/Концептуальная схема.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="названия переменных" sheetId="1" r:id="rId1"/>
     <sheet name="Перенос фокуса" sheetId="2" r:id="rId2"/>
     <sheet name="Думки" sheetId="3" r:id="rId3"/>
+    <sheet name="Объекты" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="33">
   <si>
     <t>Column1</t>
   </si>
@@ -84,6 +85,42 @@
   </si>
   <si>
     <t>в Excel Rnge идёт от 1, класс преобразует range в массив от 0</t>
+  </si>
+  <si>
+    <t>TableReader</t>
+  </si>
+  <si>
+    <t>=&gt;</t>
+  </si>
+  <si>
+    <t>MSExcelSourceReader</t>
+  </si>
+  <si>
+    <t>передается в конструктор</t>
+  </si>
+  <si>
+    <t>Создает копии</t>
+  </si>
+  <si>
+    <t>MSExcelWorker</t>
+  </si>
+  <si>
+    <t>ReadingBooster</t>
+  </si>
+  <si>
+    <t>клонируется</t>
+  </si>
+  <si>
+    <t>Не копировать, передавать по ссылке.</t>
+  </si>
+  <si>
+    <t>Потом объект сам уничтожится.</t>
+  </si>
+  <si>
+    <t>Для каждой копии создавать свой.</t>
+  </si>
+  <si>
+    <t>Должен знать только о WorkSheet</t>
   </si>
 </sst>
 </file>
@@ -289,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -309,6 +346,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4573,7 +4612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -4609,4 +4648,93 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="19"/>
+    <col min="3" max="3" width="16.21875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="15" style="19" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>